--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -67,7 +67,7 @@
     <t>dct:title</t>
   </si>
   <si>
-    <t>NeIC Organisation Vocabulary</t>
+    <t>Unofficial NeIC Organisation Vocabulary</t>
   </si>
   <si>
     <t>skos:prefLabel</t>
@@ -122,7 +122,7 @@
     <t>pav:version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.2</t>
   </si>
   <si>
     <t>pav:createdOn</t>
